--- a/Documentation/ProjectBDchart/BDProject08092020.xlsx
+++ b/Documentation/ProjectBDchart/BDProject08092020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020swprocess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\YEAR 2\Software process\bd chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -429,19 +429,19 @@
                   <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>179</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>179</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>179</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>179</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,7 +1721,7 @@
   <dimension ref="B1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,6 +1813,9 @@
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <f>SUM(D3:K3)</f>
         <v>3</v>
@@ -1834,6 +1837,9 @@
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f>SUM(D4:K4)</f>
         <v>2</v>
@@ -1855,9 +1861,12 @@
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
       <c r="L5">
         <f>SUM(D5:K5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1876,9 +1885,12 @@
       <c r="F6">
         <v>2</v>
       </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
       <c r="L6">
         <f t="shared" ref="L6:L48" si="0">SUM(D6:K6)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1897,9 +1909,12 @@
       <c r="F7">
         <v>2</v>
       </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1918,9 +1933,12 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1939,9 +1957,12 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -1960,9 +1981,12 @@
       <c r="F10">
         <v>0</v>
       </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -1981,9 +2005,12 @@
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -1993,9 +2020,12 @@
       <c r="C12" s="3">
         <v>8</v>
       </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -2005,9 +2035,12 @@
       <c r="C13" s="3">
         <v>3</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -2452,23 +2485,23 @@
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
